--- a/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_Auto_v1.xlsx
+++ b/knowledge-base/trunk/data/PharmGKB/haplotype_spreadsheet_Auto_v1.xlsx
@@ -1,62 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="ABCB1" sheetId="1" r:id="rId4"/>
-    <sheet name="ADRB1" sheetId="2" r:id="rId5"/>
-    <sheet name="BRCA1" sheetId="3" r:id="rId6"/>
-    <sheet name="COMT" sheetId="4" r:id="rId7"/>
-    <sheet name="CYP1A2" sheetId="5" r:id="rId8"/>
-    <sheet name="CYP2A6" sheetId="6" r:id="rId9"/>
-    <sheet name="CYP2B6" sheetId="7" r:id="rId10"/>
-    <sheet name="CYP2C9" sheetId="8" r:id="rId11"/>
-    <sheet name="CYP2C19" sheetId="9" r:id="rId12"/>
-    <sheet name="CYP2D6" sheetId="10" r:id="rId13"/>
-    <sheet name="CYP3A4" sheetId="11" r:id="rId14"/>
-    <sheet name="DPYD" sheetId="12" r:id="rId15"/>
-    <sheet name="HMGCR" sheetId="13" r:id="rId16"/>
-    <sheet name="P2RY12 " sheetId="14" r:id="rId17"/>
-    <sheet name="_SLCO1B1 " sheetId="15" r:id="rId18"/>
-    <sheet name="SULT1A1" sheetId="16" r:id="rId19"/>
-    <sheet name="TPMT" sheetId="17" r:id="rId20"/>
-    <sheet name="UGT1A1" sheetId="18" r:id="rId21"/>
-    <sheet name="VKORC1" sheetId="19" r:id="rId22"/>
-    <sheet name="G6PD" sheetId="20" r:id="rId23"/>
-    <sheet name="Hoja1" sheetId="21" state="hidden" r:id="rId24"/>
+    <sheet name="ABCB1" sheetId="1" r:id="rId1"/>
+    <sheet name="ADRB1" sheetId="2" r:id="rId2"/>
+    <sheet name="BRCA1" sheetId="3" r:id="rId3"/>
+    <sheet name="COMT" sheetId="4" r:id="rId4"/>
+    <sheet name="CYP1A2" sheetId="5" r:id="rId5"/>
+    <sheet name="CYP2A6" sheetId="6" r:id="rId6"/>
+    <sheet name="CYP2B6" sheetId="7" r:id="rId7"/>
+    <sheet name="CYP2C9" sheetId="8" r:id="rId8"/>
+    <sheet name="CYP2C19" sheetId="9" r:id="rId9"/>
+    <sheet name="CYP2D6" sheetId="10" r:id="rId10"/>
+    <sheet name="CYP3A4" sheetId="11" r:id="rId11"/>
+    <sheet name="DPYD" sheetId="12" r:id="rId12"/>
+    <sheet name="HMGCR" sheetId="13" r:id="rId13"/>
+    <sheet name="P2RY12 " sheetId="14" r:id="rId14"/>
+    <sheet name="_SLCO1B1 " sheetId="15" r:id="rId15"/>
+    <sheet name="SULT1A1" sheetId="16" r:id="rId16"/>
+    <sheet name="TPMT" sheetId="17" r:id="rId17"/>
+    <sheet name="UGT1A1" sheetId="18" r:id="rId18"/>
+    <sheet name="VKORC1" sheetId="19" r:id="rId19"/>
+    <sheet name="G6PD" sheetId="20" r:id="rId20"/>
+    <sheet name="Hoja1" sheetId="21" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="ABCB1_haplotypes" localSheetId="0">'ABCB1'!$D$1:$J$6</definedName>
-    <definedName name="ADRB1_haplotypes" localSheetId="1">'ADRB1'!$D$1:$F$4</definedName>
-    <definedName name="BRCA1_haplotypes" localSheetId="2">'BRCA1'!$D$1:$T$16</definedName>
-    <definedName name="COMT_haplotypes" localSheetId="3">'COMT'!$D$1:$H$4</definedName>
-    <definedName name="CYP1A2_haplotypes" localSheetId="4">'CYP1A2'!$D$1:$X$31</definedName>
-    <definedName name="CYP2A6_haplotypes" localSheetId="5">'CYP2A6'!$D$1:$N$78</definedName>
-    <definedName name="CYP2B6_haplotypes" localSheetId="6">'CYP2B6'!$D$1:$AN$65</definedName>
-    <definedName name="CYP2C19_haplotypes" localSheetId="8">'CYP2C19'!$D$1:$AO$35</definedName>
-    <definedName name="CYP2C9_haplotypes" localSheetId="7">'CYP2C9'!$D$1:$X$35</definedName>
-    <definedName name="CYP2D6_haplotypes" localSheetId="9">'CYP2D6'!$D$1:$N$12</definedName>
-    <definedName name="CYP3A4_haplotypes" localSheetId="10">'CYP3A4'!$D$1:$P$45</definedName>
-    <definedName name="DPYD_haplotypes" localSheetId="11">'DPYD'!$D$1:$R$16</definedName>
-    <definedName name="G6PD_haplotypes" localSheetId="19">'G6PD'!$D$1:$J$6</definedName>
-    <definedName name="HMGCR_haplotypes" localSheetId="12">'HMGCR'!$D$1:$O$3</definedName>
+    <definedName name="ABCB1_haplotypes" localSheetId="0">ABCB1!$D$1:$J$6</definedName>
+    <definedName name="ADRB1_haplotypes" localSheetId="1">ADRB1!$D$1:$F$4</definedName>
+    <definedName name="BRCA1_haplotypes" localSheetId="2">BRCA1!$D$1:$T$16</definedName>
+    <definedName name="COMT_haplotypes" localSheetId="3">COMT!$D$1:$H$4</definedName>
+    <definedName name="CYP1A2_haplotypes" localSheetId="4">CYP1A2!$D$1:$X$31</definedName>
+    <definedName name="CYP2A6_haplotypes" localSheetId="5">CYP2A6!$D$1:$N$78</definedName>
+    <definedName name="CYP2B6_haplotypes" localSheetId="6">CYP2B6!$D$1:$AN$65</definedName>
+    <definedName name="CYP2C19_haplotypes" localSheetId="8">CYP2C19!$D$1:$AO$35</definedName>
+    <definedName name="CYP2C9_haplotypes" localSheetId="7">CYP2C9!$D$1:$X$35</definedName>
+    <definedName name="CYP2D6_haplotypes" localSheetId="9">CYP2D6!$D$1:$N$12</definedName>
+    <definedName name="CYP3A4_haplotypes" localSheetId="10">CYP3A4!$D$1:$P$45</definedName>
+    <definedName name="DPYD_haplotypes" localSheetId="11">DPYD!$D$1:$R$16</definedName>
+    <definedName name="G6PD_haplotypes" localSheetId="19">G6PD!$D$1:$J$6</definedName>
+    <definedName name="HMGCR_haplotypes" localSheetId="12">HMGCR!$D$1:$O$3</definedName>
     <definedName name="P2RY12_haplotypes" localSheetId="13">'P2RY12 '!$D$1:$H$3</definedName>
     <definedName name="SLCO1B1_haplotypes" localSheetId="14">'_SLCO1B1 '!$D$1:$AC$35</definedName>
-    <definedName name="SULT1A1_haplotypes" localSheetId="15">'SULT1A1'!$D$1:$G$5</definedName>
-    <definedName name="TPMT_haplotypes" localSheetId="16">'TPMT'!$D$1:$H$30</definedName>
-    <definedName name="UGT1A1_haplotypes" localSheetId="17">'UGT1A1'!$D$1:$M$40</definedName>
-    <definedName name="VKORC1_haplotypes" localSheetId="18">'VKORC1'!$D$1:$N$14</definedName>
+    <definedName name="SULT1A1_haplotypes" localSheetId="15">SULT1A1!$D$1:$G$5</definedName>
+    <definedName name="TPMT_haplotypes" localSheetId="16">TPMT!$D$1:$H$30</definedName>
+    <definedName name="UGT1A1_haplotypes" localSheetId="17">UGT1A1!$D$1:$M$40</definedName>
+    <definedName name="VKORC1_haplotypes" localSheetId="18">VKORC1!$D$1:$N$14</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9876" uniqueCount="500">
   <si>
     <t>status</t>
   </si>
@@ -1561,31 +1561,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -1595,27 +1584,27 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1905,28 +1894,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
+    <col min="2" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1965,7 +1946,6 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1992,7 +1972,6 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2001,6 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2030,6 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2059,6 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2106,48 +2082,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2198,7 +2154,6 @@
       <c r="B2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2192,6 @@
       <c r="B3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2279,7 +2233,6 @@
       <c r="B4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
@@ -2318,7 +2271,6 @@
       <c r="B5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
@@ -2357,7 +2309,6 @@
       <c r="B6" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>325</v>
       </c>
@@ -2399,7 +2350,6 @@
       <c r="B7" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>97</v>
       </c>
@@ -2441,7 +2391,6 @@
       <c r="B8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>100</v>
       </c>
@@ -2483,7 +2432,6 @@
       <c r="B9" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>101</v>
       </c>
@@ -2525,7 +2473,6 @@
       <c r="B10" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>107</v>
       </c>
@@ -2567,7 +2514,6 @@
       <c r="B11" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>245</v>
       </c>
@@ -2609,7 +2555,6 @@
       <c r="B12" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>326</v>
       </c>
@@ -2645,50 +2590,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2745,7 +2668,6 @@
       <c r="B2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3693,7 +3615,6 @@
       <c r="B21" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>93</v>
       </c>
@@ -3738,7 +3659,6 @@
       <c r="B22" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
@@ -3786,7 +3706,6 @@
       <c r="B23" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>95</v>
       </c>
@@ -3834,7 +3753,6 @@
       <c r="B24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>96</v>
       </c>
@@ -3879,7 +3797,6 @@
       <c r="B25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
@@ -3927,7 +3844,6 @@
       <c r="B26" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>98</v>
       </c>
@@ -3975,7 +3891,6 @@
       <c r="B27" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
@@ -4023,7 +3938,6 @@
       <c r="B28" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>100</v>
       </c>
@@ -4068,7 +3982,6 @@
       <c r="B29" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>101</v>
       </c>
@@ -4116,7 +4029,6 @@
       <c r="B30" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>102</v>
       </c>
@@ -4164,7 +4076,6 @@
       <c r="B31" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>103</v>
       </c>
@@ -4209,7 +4120,6 @@
       <c r="B32" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
@@ -4254,7 +4164,6 @@
       <c r="B33" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
@@ -4299,7 +4208,6 @@
       <c r="B34" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
@@ -4444,7 +4352,6 @@
       <c r="B37" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>106</v>
       </c>
@@ -4589,7 +4496,6 @@
       <c r="B40" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
@@ -4634,7 +4540,6 @@
       <c r="B41" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>108</v>
       </c>
@@ -4773,7 +4678,6 @@
       <c r="B44" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>109</v>
       </c>
@@ -4821,7 +4725,6 @@
       <c r="B45" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>110</v>
       </c>
@@ -4863,52 +4766,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="true" style="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4971,7 +4849,6 @@
       <c r="B2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5005,6 @@
       <c r="B5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>94</v>
       </c>
@@ -5182,7 +5058,6 @@
       <c r="B6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>95</v>
       </c>
@@ -5233,7 +5108,6 @@
       <c r="B7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>96</v>
       </c>
@@ -5284,7 +5158,6 @@
       <c r="B8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>97</v>
       </c>
@@ -5335,7 +5208,6 @@
       <c r="B9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>98</v>
       </c>
@@ -5386,7 +5258,6 @@
       <c r="B10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>99</v>
       </c>
@@ -5543,7 +5414,6 @@
       <c r="B13" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
@@ -5594,7 +5464,6 @@
       <c r="B14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
@@ -5645,7 +5514,6 @@
       <c r="B15" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
@@ -5696,7 +5564,6 @@
       <c r="B16" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
@@ -5744,49 +5611,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -5840,7 +5684,6 @@
       <c r="B2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -5882,7 +5725,6 @@
       <c r="B3" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>374</v>
       </c>
@@ -5921,42 +5763,26 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6026,63 +5852,31 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="true" style="1"/>
-    <col min="17" max="17" width="9.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true" style="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="true" style="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true" style="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="true" style="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="true" style="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="true" style="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="true" style="1"/>
-    <col min="27" max="27" width="10.5703125" customWidth="true" style="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="true" style="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="true" style="1"/>
+    <col min="2" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.5703125" style="1" customWidth="1"/>
+    <col min="18" max="29" width="10.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7428,7 +7222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="2:29">
       <c r="B17" s="1" t="s">
         <v>405</v>
       </c>
@@ -7511,7 +7305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="2:29">
       <c r="B18" s="1" t="s">
         <v>405</v>
       </c>
@@ -7594,7 +7388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="2:29">
       <c r="B19" s="1" t="s">
         <v>405</v>
       </c>
@@ -7677,7 +7471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="2:29">
       <c r="B20" s="1" t="s">
         <v>405</v>
       </c>
@@ -7760,7 +7554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="2:29">
       <c r="B21" s="1" t="s">
         <v>405</v>
       </c>
@@ -7843,7 +7637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="2:29">
       <c r="B22" s="1" t="s">
         <v>405</v>
       </c>
@@ -7926,7 +7720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="2:29">
       <c r="B23" s="1" t="s">
         <v>405</v>
       </c>
@@ -8009,7 +7803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="2:29">
       <c r="B24" s="1" t="s">
         <v>405</v>
       </c>
@@ -8092,7 +7886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="2:29">
       <c r="B25" s="1" t="s">
         <v>405</v>
       </c>
@@ -8175,7 +7969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="2:29">
       <c r="B26" s="1" t="s">
         <v>405</v>
       </c>
@@ -8258,7 +8052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="2:29">
       <c r="B27" s="1" t="s">
         <v>405</v>
       </c>
@@ -8341,7 +8135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="2:29">
       <c r="B28" s="1" t="s">
         <v>405</v>
       </c>
@@ -8424,7 +8218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="2:29">
       <c r="B29" s="1" t="s">
         <v>405</v>
       </c>
@@ -8507,7 +8301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="2:29">
       <c r="B30" s="1" t="s">
         <v>405</v>
       </c>
@@ -8590,7 +8384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="2:29">
       <c r="B31" s="1" t="s">
         <v>405</v>
       </c>
@@ -8673,7 +8467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="2:29">
       <c r="B32" s="1" t="s">
         <v>405</v>
       </c>
@@ -8756,7 +8550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="2:29">
       <c r="B33" s="1" t="s">
         <v>405</v>
       </c>
@@ -8839,7 +8633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="2:29">
       <c r="B34" s="1" t="s">
         <v>405</v>
       </c>
@@ -8922,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="2:29">
       <c r="B35" s="1" t="s">
         <v>405</v>
       </c>
@@ -9006,41 +8800,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9070,7 +8850,6 @@
       <c r="B2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -9088,7 +8867,6 @@
       <c r="B3" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
@@ -9109,7 +8887,6 @@
       <c r="B4" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
@@ -9127,7 +8904,6 @@
       <c r="B5" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
@@ -9142,42 +8918,25 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9210,7 +8969,6 @@
       <c r="B2" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -9231,7 +8989,6 @@
       <c r="B3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
@@ -9353,7 +9110,6 @@
       <c r="B8" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
@@ -9377,7 +9133,6 @@
       <c r="B9" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>96</v>
       </c>
@@ -9401,7 +9156,6 @@
       <c r="B10" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>97</v>
       </c>
@@ -9425,7 +9179,6 @@
       <c r="B11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>98</v>
       </c>
@@ -9449,7 +9202,6 @@
       <c r="B12" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
@@ -9473,7 +9225,6 @@
       <c r="B13" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>100</v>
       </c>
@@ -9497,7 +9248,6 @@
       <c r="B14" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>101</v>
       </c>
@@ -9521,7 +9271,6 @@
       <c r="B15" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
@@ -9545,7 +9294,6 @@
       <c r="B16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>103</v>
       </c>
@@ -9569,7 +9317,6 @@
       <c r="B17" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9593,7 +9340,6 @@
       <c r="B18" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>104</v>
       </c>
@@ -9617,7 +9363,6 @@
       <c r="B19" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>105</v>
       </c>
@@ -9641,7 +9386,6 @@
       <c r="B20" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>106</v>
       </c>
@@ -9665,7 +9409,6 @@
       <c r="B21" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>107</v>
       </c>
@@ -9689,7 +9432,6 @@
       <c r="B22" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
@@ -9713,7 +9455,6 @@
       <c r="B23" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
@@ -9737,7 +9478,6 @@
       <c r="B24" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>161</v>
       </c>
@@ -9761,7 +9501,6 @@
       <c r="B25" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>162</v>
       </c>
@@ -9785,7 +9524,6 @@
       <c r="B26" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>166</v>
       </c>
@@ -9907,47 +9645,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -11166,7 +10884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
         <v>430</v>
       </c>
@@ -11201,7 +10919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
         <v>430</v>
       </c>
@@ -11236,7 +10954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
         <v>430</v>
       </c>
@@ -11271,7 +10989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
         <v>430</v>
       </c>
@@ -11306,7 +11024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
         <v>430</v>
       </c>
@@ -11341,7 +11059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
         <v>430</v>
       </c>
@@ -11376,7 +11094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
         <v>430</v>
       </c>
@@ -11411,7 +11129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="2:13">
       <c r="B40" s="1" t="s">
         <v>430</v>
       </c>
@@ -11447,48 +11165,28 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -11539,7 +11237,6 @@
       <c r="B2" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11578,7 +11275,6 @@
       <c r="B3" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
@@ -11617,7 +11313,6 @@
       <c r="B4" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
@@ -11656,7 +11351,6 @@
       <c r="B5" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
@@ -11698,7 +11392,6 @@
       <c r="B6" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -11740,7 +11433,6 @@
       <c r="B7" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
@@ -11779,7 +11471,6 @@
       <c r="B8" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
@@ -11818,7 +11509,6 @@
       <c r="B9" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>483</v>
       </c>
@@ -11860,7 +11550,6 @@
       <c r="B10" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>484</v>
       </c>
@@ -11899,7 +11588,6 @@
       <c r="B11" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>485</v>
       </c>
@@ -11941,7 +11629,6 @@
       <c r="B12" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>374</v>
       </c>
@@ -11983,7 +11670,6 @@
       <c r="B13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>486</v>
       </c>
@@ -12025,7 +11711,6 @@
       <c r="B14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>487</v>
       </c>
@@ -12061,40 +11746,25 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12121,7 +11791,6 @@
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
@@ -12136,7 +11805,6 @@
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
@@ -12154,7 +11822,6 @@
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
@@ -12166,48 +11833,32 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true" style="2"/>
-    <col min="4" max="4" width="44.7109375" customWidth="true" style="2"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="2"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="2"/>
-    <col min="7" max="7" width="11.5703125" customWidth="true" style="2"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="2"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="2"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12238,13 +11889,11 @@
       <c r="J1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>495</v>
       </c>
@@ -12267,14 +11916,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>496</v>
       </c>
@@ -12297,11 +11945,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="B4" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>497</v>
       </c>
@@ -12324,11 +11971,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>498</v>
       </c>
@@ -12351,11 +11997,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>499</v>
       </c>
@@ -12379,82 +12024,43 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="9.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="true" style="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="true" style="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="true" style="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="9" width="7.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
+    <col min="11" max="15" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5703125" style="1" customWidth="1"/>
+    <col min="18" max="20" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -12523,7 +12129,6 @@
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -12580,7 +12185,6 @@
       <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
@@ -12637,7 +12241,6 @@
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>2</v>
       </c>
@@ -12694,7 +12297,6 @@
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
@@ -12751,7 +12353,6 @@
       <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>3</v>
       </c>
@@ -12808,7 +12409,6 @@
       <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
@@ -12868,7 +12468,6 @@
       <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -12925,7 +12524,6 @@
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
@@ -12985,7 +12583,6 @@
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>5</v>
       </c>
@@ -13042,7 +12639,6 @@
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
@@ -13099,7 +12695,6 @@
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>6</v>
       </c>
@@ -13156,7 +12751,6 @@
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>7</v>
       </c>
@@ -13213,7 +12807,6 @@
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>8</v>
       </c>
@@ -13270,7 +12863,6 @@
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>9</v>
       </c>
@@ -13327,7 +12919,6 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>10</v>
       </c>
@@ -13381,40 +12972,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="29.85546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.5703125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="6.5703125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.5703125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.5703125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="8" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13447,7 +13022,6 @@
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>58</v>
       </c>
@@ -13468,7 +13042,6 @@
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>59</v>
       </c>
@@ -13489,7 +13062,6 @@
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>60</v>
       </c>
@@ -13507,56 +13079,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.5703125" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.5703125" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="0"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10.5703125" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10.5703125" customWidth="true" style="0"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true" style="0"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.5703125" customWidth="true" style="0"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true" style="0"/>
-    <col min="23" max="23" width="10.5703125" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8.5703125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="23" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -14362,7 +13905,6 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>93</v>
       </c>
@@ -14434,7 +13976,6 @@
       <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13"/>
       <c r="D13" t="s">
         <v>94</v>
       </c>
@@ -14503,7 +14044,6 @@
       <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="C14"/>
       <c r="D14" t="s">
         <v>95</v>
       </c>
@@ -14575,7 +14115,6 @@
       <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>96</v>
       </c>
@@ -14644,7 +14183,6 @@
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16"/>
       <c r="D16" t="s">
         <v>97</v>
       </c>
@@ -14713,7 +14251,6 @@
       <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>98</v>
       </c>
@@ -14785,7 +14322,6 @@
       <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="C18"/>
       <c r="D18" t="s">
         <v>99</v>
       </c>
@@ -14857,7 +14393,6 @@
       <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="C19"/>
       <c r="D19" t="s">
         <v>100</v>
       </c>
@@ -14926,7 +14461,6 @@
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20"/>
       <c r="D20" t="s">
         <v>101</v>
       </c>
@@ -14995,7 +14529,6 @@
       <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>102</v>
       </c>
@@ -15067,7 +14600,6 @@
       <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C22"/>
       <c r="D22" t="s">
         <v>103</v>
       </c>
@@ -15136,7 +14668,6 @@
       <c r="B23" t="s">
         <v>81</v>
       </c>
-      <c r="C23"/>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -15205,7 +14736,6 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>104</v>
       </c>
@@ -15277,7 +14807,6 @@
       <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="C25"/>
       <c r="D25" t="s">
         <v>105</v>
       </c>
@@ -15349,7 +14878,6 @@
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26"/>
       <c r="D26" t="s">
         <v>106</v>
       </c>
@@ -15421,7 +14949,6 @@
       <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27"/>
       <c r="D27" t="s">
         <v>107</v>
       </c>
@@ -15493,7 +15020,6 @@
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28"/>
       <c r="D28" t="s">
         <v>108</v>
       </c>
@@ -15565,7 +15091,6 @@
       <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>109</v>
       </c>
@@ -15637,7 +15162,6 @@
       <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>110</v>
       </c>
@@ -15709,7 +15233,6 @@
       <c r="B31" t="s">
         <v>81</v>
       </c>
-      <c r="C31"/>
       <c r="D31" t="s">
         <v>111</v>
       </c>
@@ -15775,48 +15298,27 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14" customWidth="true" style="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -16307,7 +15809,6 @@
       <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>93</v>
       </c>
@@ -16349,7 +15850,6 @@
       <c r="B13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>94</v>
       </c>
@@ -16716,7 +16216,6 @@
       <c r="B22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
@@ -16755,7 +16254,6 @@
       <c r="B23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
@@ -16794,7 +16292,6 @@
       <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
@@ -16833,7 +16330,6 @@
       <c r="B25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>99</v>
       </c>
@@ -16960,7 +16456,6 @@
       <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
@@ -17002,7 +16497,6 @@
       <c r="B29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>102</v>
       </c>
@@ -17176,7 +16670,6 @@
       <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>16</v>
       </c>
@@ -17215,7 +16708,6 @@
       <c r="B34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>104</v>
       </c>
@@ -17257,7 +16749,6 @@
       <c r="B35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>105</v>
       </c>
@@ -17299,7 +16790,6 @@
       <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>106</v>
       </c>
@@ -17338,7 +16828,6 @@
       <c r="B37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>107</v>
       </c>
@@ -17509,7 +16998,6 @@
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>109</v>
       </c>
@@ -17551,7 +17039,6 @@
       <c r="B42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>141</v>
       </c>
@@ -17593,7 +17080,6 @@
       <c r="B43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
@@ -17635,7 +17121,6 @@
       <c r="B44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>143</v>
       </c>
@@ -17677,7 +17162,6 @@
       <c r="B45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>144</v>
       </c>
@@ -17719,7 +17203,6 @@
       <c r="B46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>145</v>
       </c>
@@ -17761,7 +17244,6 @@
       <c r="B47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>146</v>
       </c>
@@ -17803,7 +17285,6 @@
       <c r="B48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>147</v>
       </c>
@@ -17845,7 +17326,6 @@
       <c r="B49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
         <v>148</v>
       </c>
@@ -17887,7 +17367,6 @@
       <c r="B50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>149</v>
       </c>
@@ -17929,7 +17408,6 @@
       <c r="B51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>150</v>
       </c>
@@ -17971,7 +17449,6 @@
       <c r="B52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>151</v>
       </c>
@@ -18013,7 +17490,6 @@
       <c r="B53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>152</v>
       </c>
@@ -18055,7 +17531,6 @@
       <c r="B54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>153</v>
       </c>
@@ -18097,7 +17572,6 @@
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>154</v>
       </c>
@@ -18139,7 +17613,6 @@
       <c r="B56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>155</v>
       </c>
@@ -18181,7 +17654,6 @@
       <c r="B57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>156</v>
       </c>
@@ -18223,7 +17695,6 @@
       <c r="B58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>157</v>
       </c>
@@ -18265,7 +17736,6 @@
       <c r="B59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>158</v>
       </c>
@@ -18307,7 +17777,6 @@
       <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>159</v>
       </c>
@@ -18349,7 +17818,6 @@
       <c r="B61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>110</v>
       </c>
@@ -18391,7 +17859,6 @@
       <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
         <v>111</v>
       </c>
@@ -18433,7 +17900,6 @@
       <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
         <v>161</v>
       </c>
@@ -18475,7 +17941,6 @@
       <c r="B64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
         <v>162</v>
       </c>
@@ -18605,7 +18070,6 @@
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
         <v>166</v>
       </c>
@@ -18647,7 +18111,6 @@
       <c r="B68" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
         <v>167</v>
       </c>
@@ -18689,7 +18152,6 @@
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
         <v>168</v>
       </c>
@@ -18907,7 +18369,6 @@
       <c r="B74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>175</v>
       </c>
@@ -19037,7 +18498,6 @@
       <c r="B77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
         <v>179</v>
       </c>
@@ -19079,7 +18539,6 @@
       <c r="B78" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>180</v>
       </c>
@@ -19115,74 +18574,32 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="9.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="true" style="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true" style="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="true" style="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true" style="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="true" style="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="true" style="1"/>
-    <col min="25" max="25" width="10.5703125" customWidth="true" style="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="true" style="1"/>
-    <col min="27" max="27" width="10.5703125" customWidth="true" style="1"/>
-    <col min="28" max="28" width="10.5703125" customWidth="true" style="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="true" style="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="true" style="1"/>
-    <col min="31" max="31" width="10.5703125" customWidth="true" style="1"/>
-    <col min="32" max="32" width="10.5703125" customWidth="true" style="1"/>
-    <col min="33" max="33" width="9.5703125" customWidth="true" style="1"/>
-    <col min="34" max="34" width="9.5703125" customWidth="true" style="1"/>
-    <col min="35" max="35" width="10.5703125" customWidth="true" style="1"/>
-    <col min="36" max="36" width="9.5703125" customWidth="true" style="1"/>
-    <col min="37" max="37" width="9.5703125" customWidth="true" style="1"/>
-    <col min="38" max="38" width="9.5703125" customWidth="true" style="1"/>
-    <col min="39" max="39" width="9.5703125" customWidth="true" style="1"/>
-    <col min="40" max="40" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14" max="32" width="10.5703125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="9.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="1" customWidth="1"/>
+    <col min="36" max="40" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -19311,7 +18728,6 @@
       <c r="B2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -21017,7 +20433,6 @@
       <c r="B16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>93</v>
       </c>
@@ -21375,7 +20790,6 @@
       <c r="B19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>94</v>
       </c>
@@ -21495,7 +20909,6 @@
       <c r="B20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
@@ -22097,7 +21510,6 @@
       <c r="B25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>96</v>
       </c>
@@ -22583,7 +21995,6 @@
       <c r="B29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
@@ -23069,7 +22480,6 @@
       <c r="B33" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>98</v>
       </c>
@@ -23430,7 +22840,6 @@
       <c r="B36" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>99</v>
       </c>
@@ -23547,7 +22956,6 @@
       <c r="B37" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>100</v>
       </c>
@@ -23667,7 +23075,6 @@
       <c r="B38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>101</v>
       </c>
@@ -23787,7 +23194,6 @@
       <c r="B39" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>102</v>
       </c>
@@ -24145,7 +23551,6 @@
       <c r="B42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
@@ -24265,7 +23670,6 @@
       <c r="B43" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
@@ -24629,7 +24033,6 @@
       <c r="B46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>104</v>
       </c>
@@ -24749,7 +24152,6 @@
       <c r="B47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>105</v>
       </c>
@@ -25110,7 +24512,6 @@
       <c r="B50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>106</v>
       </c>
@@ -25230,7 +24631,6 @@
       <c r="B51" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>107</v>
       </c>
@@ -25594,7 +24994,6 @@
       <c r="B54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>108</v>
       </c>
@@ -25714,7 +25113,6 @@
       <c r="B55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>109</v>
       </c>
@@ -25834,7 +25232,6 @@
       <c r="B56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
@@ -25954,7 +25351,6 @@
       <c r="B57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>111</v>
       </c>
@@ -26074,7 +25470,6 @@
       <c r="B58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>161</v>
       </c>
@@ -26191,7 +25586,6 @@
       <c r="B59" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>162</v>
       </c>
@@ -26311,7 +25705,6 @@
       <c r="B60" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>163</v>
       </c>
@@ -26431,7 +25824,6 @@
       <c r="B61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>166</v>
       </c>
@@ -26551,7 +25943,6 @@
       <c r="B62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
         <v>167</v>
       </c>
@@ -26671,7 +26062,6 @@
       <c r="B63" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
         <v>168</v>
       </c>
@@ -26791,7 +26181,6 @@
       <c r="B64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
         <v>169</v>
       </c>
@@ -26904,11 +26293,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="2:40">
       <c r="B65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
         <v>245</v>
       </c>
@@ -27022,58 +26410,29 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="true" style="1"/>
-    <col min="4" max="4" width="10" customWidth="true" style="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="true" style="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true" style="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="true" style="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="true" style="1"/>
-    <col min="23" max="23" width="9.5703125" customWidth="true" style="1"/>
-    <col min="24" max="24" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="20" width="10.5703125" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -27154,7 +26513,6 @@
       <c r="B2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -27223,7 +26581,6 @@
       <c r="B3" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
@@ -27292,7 +26649,6 @@
       <c r="B4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>94</v>
       </c>
@@ -27364,7 +26720,6 @@
       <c r="B5" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>95</v>
       </c>
@@ -27433,7 +26788,6 @@
       <c r="B6" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>96</v>
       </c>
@@ -27502,7 +26856,6 @@
       <c r="B7" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>97</v>
       </c>
@@ -27571,7 +26924,6 @@
       <c r="B8" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
@@ -27640,7 +26992,6 @@
       <c r="B9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>99</v>
       </c>
@@ -27709,7 +27060,6 @@
       <c r="B10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>100</v>
       </c>
@@ -27778,7 +27128,6 @@
       <c r="B11" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>101</v>
       </c>
@@ -27847,7 +27196,6 @@
       <c r="B12" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>102</v>
       </c>
@@ -27916,7 +27264,6 @@
       <c r="B13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>103</v>
       </c>
@@ -27985,7 +27332,6 @@
       <c r="B14" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
@@ -28054,7 +27400,6 @@
       <c r="B15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>104</v>
       </c>
@@ -28123,7 +27468,6 @@
       <c r="B16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>105</v>
       </c>
@@ -28192,7 +27536,6 @@
       <c r="B17" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>106</v>
       </c>
@@ -28264,7 +27607,6 @@
       <c r="B18" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>107</v>
       </c>
@@ -28336,7 +27678,6 @@
       <c r="B19" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>108</v>
       </c>
@@ -28408,7 +27749,6 @@
       <c r="B20" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>109</v>
       </c>
@@ -28480,7 +27820,6 @@
       <c r="B21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>110</v>
       </c>
@@ -28552,7 +27891,6 @@
       <c r="B22" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>111</v>
       </c>
@@ -28624,7 +27962,6 @@
       <c r="B23" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>161</v>
       </c>
@@ -28696,7 +28033,6 @@
       <c r="B24" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>162</v>
       </c>
@@ -28768,7 +28104,6 @@
       <c r="B25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>163</v>
       </c>
@@ -28837,7 +28172,6 @@
       <c r="B26" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>166</v>
       </c>
@@ -28909,7 +28243,6 @@
       <c r="B27" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>167</v>
       </c>
@@ -28981,7 +28314,6 @@
       <c r="B28" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>168</v>
       </c>
@@ -29053,7 +28385,6 @@
       <c r="B29" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>169</v>
       </c>
@@ -29125,7 +28456,6 @@
       <c r="B30" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>245</v>
       </c>
@@ -29197,7 +28527,6 @@
       <c r="B31" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>268</v>
       </c>
@@ -29269,7 +28598,6 @@
       <c r="B32" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>172</v>
       </c>
@@ -29341,7 +28669,6 @@
       <c r="B33" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>269</v>
       </c>
@@ -29410,7 +28737,6 @@
       <c r="B34" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>270</v>
       </c>
@@ -29479,7 +28805,6 @@
       <c r="B35" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>175</v>
       </c>
@@ -29545,75 +28870,34 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true" style="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true" style="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="true" style="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="true" style="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="true" style="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="true" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="true" style="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="true" style="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="true" style="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="true" style="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="true" style="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="true" style="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="true" style="1"/>
-    <col min="18" max="18" width="10.5703125" customWidth="true" style="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true" style="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true" style="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="true" style="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true" style="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="true" style="1"/>
-    <col min="24" max="24" width="9.5703125" customWidth="true" style="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="true" style="1"/>
-    <col min="26" max="26" width="10.5703125" customWidth="true" style="1"/>
-    <col min="27" max="27" width="9.5703125" customWidth="true" style="1"/>
-    <col min="28" max="28" width="9.5703125" customWidth="true" style="1"/>
-    <col min="29" max="29" width="9.5703125" customWidth="true" style="1"/>
-    <col min="30" max="30" width="9.5703125" customWidth="true" style="1"/>
-    <col min="31" max="31" width="9.5703125" customWidth="true" style="1"/>
-    <col min="32" max="32" width="10.5703125" customWidth="true" style="1"/>
-    <col min="33" max="33" width="10.5703125" customWidth="true" style="1"/>
-    <col min="34" max="34" width="10.5703125" customWidth="true" style="1"/>
-    <col min="35" max="35" width="10.5703125" customWidth="true" style="1"/>
-    <col min="36" max="36" width="9.5703125" customWidth="true" style="1"/>
-    <col min="37" max="37" width="9.5703125" customWidth="true" style="1"/>
-    <col min="38" max="38" width="10.5703125" customWidth="true" style="1"/>
-    <col min="39" max="39" width="10.5703125" customWidth="true" style="1"/>
-    <col min="40" max="40" width="9.5703125" customWidth="true" style="1"/>
-    <col min="41" max="41" width="9.5703125" customWidth="true" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="23" width="10.5703125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="1" customWidth="1"/>
+    <col min="27" max="31" width="9.5703125" style="1" customWidth="1"/>
+    <col min="32" max="35" width="10.5703125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="9.5703125" style="1" customWidth="1"/>
+    <col min="38" max="39" width="10.5703125" style="1" customWidth="1"/>
+    <col min="40" max="41" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
@@ -30114,7 +29398,6 @@
       <c r="B5" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>93</v>
       </c>
@@ -31475,7 +30758,6 @@
       <c r="B16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>97</v>
       </c>
@@ -31595,7 +30877,6 @@
       <c r="B17" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>98</v>
       </c>
@@ -31715,7 +30996,6 @@
       <c r="B18" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
@@ -31835,7 +31115,6 @@
       <c r="B19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>100</v>
       </c>
@@ -31955,7 +31234,6 @@
       <c r="B20" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>101</v>
       </c>
@@ -32075,7 +31353,6 @@
       <c r="B21" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>102</v>
       </c>
@@ -32195,7 +31472,6 @@
       <c r="B22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
         <v>103</v>
       </c>
@@ -32315,7 +31591,6 @@
       <c r="B23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
@@ -32435,7 +31710,6 @@
       <c r="B24" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>104</v>
       </c>
@@ -32555,7 +31829,6 @@
       <c r="B25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>105</v>
       </c>
@@ -32675,7 +31948,6 @@
       <c r="B26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>106</v>
       </c>
@@ -32795,7 +32067,6 @@
       <c r="B27" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>107</v>
       </c>
@@ -32915,7 +32186,6 @@
       <c r="B28" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>108</v>
       </c>
@@ -33035,7 +32305,6 @@
       <c r="B29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
@@ -33158,7 +32427,6 @@
       <c r="B30" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>161</v>
       </c>
@@ -33278,7 +32546,6 @@
       <c r="B31" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>162</v>
       </c>
@@ -33398,7 +32665,6 @@
       <c r="B32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>163</v>
       </c>
@@ -33514,11 +32780,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="2:41">
       <c r="B33" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>166</v>
       </c>
@@ -33634,11 +32899,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="2:41">
       <c r="B34" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>167</v>
       </c>
@@ -33754,11 +33018,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="2:41">
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>168</v>
       </c>
@@ -33875,17 +33138,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>